--- a/analysis/transient/xlsx/base_transient_017.xlsx
+++ b/analysis/transient/xlsx/base_transient_017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wronek\Documents\1) Università\Magistrale\Anno 2022-2023\Semestre 2\PMCSN\Project\analysis\transient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wronek\Documents\1 - Università\Magistrale\Anno 2022-2023\Semestre 2\PMCSN\Project\analysis\transient\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C81F3E-B6C5-434D-801F-C4D4FBD62CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5FCD32-C7E7-46A0-B0A3-93E984236E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28665" windowHeight="18465"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="38400" windowHeight="18465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_transient_017" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
-    <t>Based on 200 simulations and with 99.00% confidence</t>
-  </si>
-  <si>
     <t>NODE 1</t>
   </si>
   <si>
@@ -71,12 +68,15 @@
   </si>
   <si>
     <t>Average max response time:</t>
+  </si>
+  <si>
+    <t>Based on 64 simulations and with 95.00% confidence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,11 +554,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,6 +566,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -925,540 +928,540 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.52640200000000004</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1">
+        <v>0.52643300000000004</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.3599999999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
-        <v>2.3800000000000001E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="1">
+        <v>10.815011999999999</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.237258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>10.749803</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="1">
+        <v>8.8157800000000002</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.236653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.9992319999999999</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.248E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20.534413000000001</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.45749099999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>16.738941000000001</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.45498899999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.94886800000000004</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8.3299999999999997E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.84780900000000003</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.1900000000000002E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.169826</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B15" s="1">
+        <v>15.893732</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.400287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12.691838000000001</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.39868700000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>8.7503139999999995</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B17" s="1">
+        <v>3.2018939999999998</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.6120000000000002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>18.741578000000001</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.48085299999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1">
+        <v>14.966678</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.47713800000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.94372500000000004</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.14E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.321547</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.3669999999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
-        <v>0.16938500000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B25" s="1">
+        <v>22.582705000000001</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.641679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20.085334</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.64036400000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.4973700000000001</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.6909999999999998E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>1.9994890000000001</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B28" s="1">
+        <v>17.085177000000002</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.48937700000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1">
+        <v>15.195985</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.48786299999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.94459599999999999</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.304E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.65140600000000004</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4.57E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
-        <v>8.5999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B35" s="1">
+        <v>5.666874</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5.4229999999999999E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4.3670369999999998</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4.542E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.299836</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9.2800000000000001E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>8.6991829999999997</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.2880000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
-        <v>20.412320000000001</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.32746799999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B39" s="1">
+        <v>6.7038080000000004</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3.2139999999999998E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
-        <v>16.615981000000001</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.32574700000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B40" s="1">
+        <v>0.99768699999999999</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6.0999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.94908499999999996</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5.7799999999999995E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.84763100000000002</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5.3399999999999997E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2">
-        <v>15.630246</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.285161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2">
-        <v>12.430479</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.28417199999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3.199767</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1.7960000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2">
-        <v>18.435426</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.34297899999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2">
-        <v>14.662074</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.34051199999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.94333800000000001</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2">
-        <v>7.9100000000000004E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1.321064</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1.016E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2">
-        <v>23.570395999999999</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.61269700000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2">
-        <v>21.070160000000001</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.61150400000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2.5002360000000001</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1.934E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="2">
-        <v>17.841591000000001</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.47026400000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="2">
-        <v>15.949527</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.46869899999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.94603199999999998</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1.052E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="B41" s="2">
+        <v>0.430927</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>5.0900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.65149500000000005</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="2">
-        <v>3.21E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="2">
-        <v>5.668266</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="2">
-        <v>3.8670000000000002E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="2">
-        <v>4.3682699999999999</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2">
-        <v>3.2450000000000001E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1.2999970000000001</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="2">
-        <v>6.5200000000000002E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="2">
-        <v>8.7001449999999991</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2.313E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="2">
-        <v>6.7047929999999996</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="2">
-        <v>2.2620000000000001E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.99767600000000001</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="2">
-        <v>4.5000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="3">
-        <v>0.43112899999999998</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="3">
-        <v>3.5799999999999997E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="2">
-        <v>55.618699999999997</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0.75970000000000004</v>
+      <c r="B43" s="1">
+        <v>54.958300000000001</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.86380000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
